--- a/data/pca/factorExposure/factorExposure_2009-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01768212057483841</v>
+        <v>0.01694420704491345</v>
       </c>
       <c r="C2">
-        <v>0.001521506341760248</v>
+        <v>-0.0009696949387049678</v>
       </c>
       <c r="D2">
-        <v>-0.003943309247507914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009525277229836031</v>
+      </c>
+      <c r="E2">
+        <v>-0.002079000145971881</v>
+      </c>
+      <c r="F2">
+        <v>-0.01352838773922859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09532928621477166</v>
+        <v>0.09363889295996322</v>
       </c>
       <c r="C4">
-        <v>0.02091370311007393</v>
+        <v>-0.01464298098578596</v>
       </c>
       <c r="D4">
-        <v>-0.06634717872203058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08359673115894599</v>
+      </c>
+      <c r="E4">
+        <v>-0.02862828337264822</v>
+      </c>
+      <c r="F4">
+        <v>0.03303271320735136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1488035815042817</v>
+        <v>0.1596044799954404</v>
       </c>
       <c r="C6">
-        <v>0.02770623452721122</v>
+        <v>-0.02709432210031078</v>
       </c>
       <c r="D6">
-        <v>0.02634021234053594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02517830256257022</v>
+      </c>
+      <c r="E6">
+        <v>-0.008818708598422693</v>
+      </c>
+      <c r="F6">
+        <v>0.04183688367509811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06408682364867158</v>
+        <v>0.06370473173413477</v>
       </c>
       <c r="C7">
-        <v>0.002933254920390785</v>
+        <v>0.001647776921204905</v>
       </c>
       <c r="D7">
-        <v>-0.03982568391512904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05252043347077952</v>
+      </c>
+      <c r="E7">
+        <v>-0.01204956152093695</v>
+      </c>
+      <c r="F7">
+        <v>0.04670066775636511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06332075542069608</v>
+        <v>0.0577714317255064</v>
       </c>
       <c r="C8">
-        <v>-0.009890157069609469</v>
+        <v>0.01315149935103983</v>
       </c>
       <c r="D8">
-        <v>-0.01843019903676474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03174897810208463</v>
+      </c>
+      <c r="E8">
+        <v>-0.01763564581272265</v>
+      </c>
+      <c r="F8">
+        <v>-0.02550063729503028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07341446783263181</v>
+        <v>0.07096117070486595</v>
       </c>
       <c r="C9">
-        <v>0.01723680166916519</v>
+        <v>-0.01030149120355847</v>
       </c>
       <c r="D9">
-        <v>-0.06899309176708605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08718065567867128</v>
+      </c>
+      <c r="E9">
+        <v>-0.02392758065025638</v>
+      </c>
+      <c r="F9">
+        <v>0.04692709281854747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08262050197857525</v>
+        <v>0.08979184591473953</v>
       </c>
       <c r="C10">
-        <v>0.01230742709533194</v>
+        <v>-0.02053877087639785</v>
       </c>
       <c r="D10">
-        <v>0.1667021755143162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1628666239003561</v>
+      </c>
+      <c r="E10">
+        <v>0.03187675214412745</v>
+      </c>
+      <c r="F10">
+        <v>-0.05734429958230485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09349404789239416</v>
+        <v>0.08832522065057048</v>
       </c>
       <c r="C11">
-        <v>0.01810122100715891</v>
+        <v>-0.01041584879054372</v>
       </c>
       <c r="D11">
-        <v>-0.09687645427858979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169334437699387</v>
+      </c>
+      <c r="E11">
+        <v>-0.0464578159514944</v>
+      </c>
+      <c r="F11">
+        <v>0.02325486285132549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09966733567410489</v>
+        <v>0.09158716128956412</v>
       </c>
       <c r="C12">
-        <v>0.01602641106819514</v>
+        <v>-0.007741946777649457</v>
       </c>
       <c r="D12">
-        <v>-0.1002836418341845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316845138737278</v>
+      </c>
+      <c r="E12">
+        <v>-0.04572411934468077</v>
+      </c>
+      <c r="F12">
+        <v>0.03155865324230989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04439615574450279</v>
+        <v>0.0415505141943032</v>
       </c>
       <c r="C13">
-        <v>0.005915018181837577</v>
+        <v>-0.002408359971785891</v>
       </c>
       <c r="D13">
-        <v>-0.03108690832098796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05360417255525891</v>
+      </c>
+      <c r="E13">
+        <v>0.003765741851049171</v>
+      </c>
+      <c r="F13">
+        <v>0.001023459221623907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01959071997451693</v>
+        <v>0.02370152734531573</v>
       </c>
       <c r="C14">
-        <v>0.01524633897598135</v>
+        <v>-0.01369794179200438</v>
       </c>
       <c r="D14">
-        <v>-0.02457047878064995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03348286115209002</v>
+      </c>
+      <c r="E14">
+        <v>-0.01880188653444255</v>
+      </c>
+      <c r="F14">
+        <v>0.01389260451296919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03491563740299291</v>
+        <v>0.03311107800683766</v>
       </c>
       <c r="C15">
-        <v>0.007805465447522024</v>
+        <v>-0.004688181553315131</v>
       </c>
       <c r="D15">
-        <v>-0.03024902094164553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04503096878816373</v>
+      </c>
+      <c r="E15">
+        <v>-0.005959590609975038</v>
+      </c>
+      <c r="F15">
+        <v>0.02539359211501153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07887990161264946</v>
+        <v>0.07413821461111199</v>
       </c>
       <c r="C16">
-        <v>0.00890286439041115</v>
+        <v>-0.0009754280559585159</v>
       </c>
       <c r="D16">
-        <v>-0.09873772502188163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274254838220576</v>
+      </c>
+      <c r="E16">
+        <v>-0.06061614877897128</v>
+      </c>
+      <c r="F16">
+        <v>0.02761161650175364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008813574488112692</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002214157277941447</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00163971440074607</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009921215995983958</v>
+      </c>
+      <c r="F17">
+        <v>-0.002252231346383309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01738697845553656</v>
+        <v>0.0372106441860478</v>
       </c>
       <c r="C18">
-        <v>-0.003116719923233807</v>
+        <v>0.002773468241428935</v>
       </c>
       <c r="D18">
-        <v>-0.03010217841102976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0156396155962382</v>
+      </c>
+      <c r="E18">
+        <v>0.008680369183654</v>
+      </c>
+      <c r="F18">
+        <v>-0.008806893433590779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0661369297735898</v>
+        <v>0.0625355916730387</v>
       </c>
       <c r="C20">
-        <v>0.006799814415891558</v>
+        <v>-0.0002649077625640295</v>
       </c>
       <c r="D20">
-        <v>-0.05114484657196432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07705525811660432</v>
+      </c>
+      <c r="E20">
+        <v>-0.05543765482561983</v>
+      </c>
+      <c r="F20">
+        <v>0.03031484921395972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04070011666854241</v>
+        <v>0.04108354567890971</v>
       </c>
       <c r="C21">
-        <v>0.009898044360154094</v>
+        <v>-0.006357092747058766</v>
       </c>
       <c r="D21">
-        <v>-0.03083306295299639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03872612889439379</v>
+      </c>
+      <c r="E21">
+        <v>0.000258509137399349</v>
+      </c>
+      <c r="F21">
+        <v>-0.02387285896118506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04064496910804163</v>
+        <v>0.04327702941335826</v>
       </c>
       <c r="C22">
-        <v>0.0009400386714914797</v>
+        <v>-0.000491210354930426</v>
       </c>
       <c r="D22">
-        <v>0.01221953195028073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003913672730548494</v>
+      </c>
+      <c r="E22">
+        <v>-0.03645375366162628</v>
+      </c>
+      <c r="F22">
+        <v>-0.03836326315139012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0406084220679334</v>
+        <v>0.04325296216797456</v>
       </c>
       <c r="C23">
-        <v>0.0009302801853592312</v>
+        <v>-0.0004827465076175916</v>
       </c>
       <c r="D23">
-        <v>0.01219988883243938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003929223112837724</v>
+      </c>
+      <c r="E23">
+        <v>-0.03663682766198299</v>
+      </c>
+      <c r="F23">
+        <v>-0.03832371397392263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08488826837236221</v>
+        <v>0.07994864301481686</v>
       </c>
       <c r="C24">
-        <v>0.009194243660658595</v>
+        <v>-0.001699713729579671</v>
       </c>
       <c r="D24">
-        <v>-0.1034271212603522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198058844953351</v>
+      </c>
+      <c r="E24">
+        <v>-0.04851040944629861</v>
+      </c>
+      <c r="F24">
+        <v>0.02995850455213983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08978888396682488</v>
+        <v>0.08478736748090154</v>
       </c>
       <c r="C25">
-        <v>0.01160516477742151</v>
+        <v>-0.004257791198735467</v>
       </c>
       <c r="D25">
-        <v>-0.09039138104456909</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094112463856501</v>
+      </c>
+      <c r="E25">
+        <v>-0.03207908086298868</v>
+      </c>
+      <c r="F25">
+        <v>0.02681505800913494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05909681514167191</v>
+        <v>0.05941087322676625</v>
       </c>
       <c r="C26">
-        <v>0.01805392244728787</v>
+        <v>-0.01458385228531556</v>
       </c>
       <c r="D26">
-        <v>-0.01858865930073027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04236284659759496</v>
+      </c>
+      <c r="E26">
+        <v>-0.02981396337947606</v>
+      </c>
+      <c r="F26">
+        <v>-0.005154560146388542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1301703284126755</v>
+        <v>0.1413085647093624</v>
       </c>
       <c r="C28">
-        <v>0.0109704704161568</v>
+        <v>-0.02212754175580953</v>
       </c>
       <c r="D28">
-        <v>0.2716186182493391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613477366720595</v>
+      </c>
+      <c r="E28">
+        <v>0.06748894086554096</v>
+      </c>
+      <c r="F28">
+        <v>0.003887948624252022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02635119353912283</v>
+        <v>0.02876992398834214</v>
       </c>
       <c r="C29">
-        <v>0.009907251062892013</v>
+        <v>-0.008730985629199538</v>
       </c>
       <c r="D29">
-        <v>-0.02157068613953527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03119184335888917</v>
+      </c>
+      <c r="E29">
+        <v>-0.0140003767847067</v>
+      </c>
+      <c r="F29">
+        <v>-0.01255362527616022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06685892344112677</v>
+        <v>0.05947494140333353</v>
       </c>
       <c r="C30">
-        <v>0.01054892979050178</v>
+        <v>-0.002730401718760981</v>
       </c>
       <c r="D30">
-        <v>-0.05962718412392402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08794000567023136</v>
+      </c>
+      <c r="E30">
+        <v>-0.01402681575186462</v>
+      </c>
+      <c r="F30">
+        <v>0.07966277459142972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0510494318955936</v>
+        <v>0.05131457759929395</v>
       </c>
       <c r="C31">
-        <v>0.01703338178597103</v>
+        <v>-0.01564833048669149</v>
       </c>
       <c r="D31">
-        <v>-0.02056993002300567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02441646843387578</v>
+      </c>
+      <c r="E31">
+        <v>-0.02885411116137128</v>
+      </c>
+      <c r="F31">
+        <v>-0.0009394996972863112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04758215345328912</v>
+        <v>0.05131199084400931</v>
       </c>
       <c r="C32">
-        <v>0.002313061691310948</v>
+        <v>0.001865276736728278</v>
       </c>
       <c r="D32">
-        <v>-0.01991968450443655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03616609402629313</v>
+      </c>
+      <c r="E32">
+        <v>-0.03445326150581643</v>
+      </c>
+      <c r="F32">
+        <v>0.00437075614475843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09338588004621541</v>
+        <v>0.08850276206484689</v>
       </c>
       <c r="C33">
-        <v>0.01415390341450963</v>
+        <v>-0.006405586737578343</v>
       </c>
       <c r="D33">
-        <v>-0.07759488742406898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1027029253380422</v>
+      </c>
+      <c r="E33">
+        <v>-0.04461179779500917</v>
+      </c>
+      <c r="F33">
+        <v>0.03917484969314558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0717299509962766</v>
+        <v>0.06789343649611501</v>
       </c>
       <c r="C34">
-        <v>0.01634245429744619</v>
+        <v>-0.01002359130259827</v>
       </c>
       <c r="D34">
-        <v>-0.08482474464309114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099881095951655</v>
+      </c>
+      <c r="E34">
+        <v>-0.0350380695275283</v>
+      </c>
+      <c r="F34">
+        <v>0.03332657205092249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02396710839474134</v>
+        <v>0.0259296711061925</v>
       </c>
       <c r="C35">
-        <v>0.002954549794818156</v>
+        <v>-0.002656567224505425</v>
       </c>
       <c r="D35">
-        <v>-0.006466728865431731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01210741378465103</v>
+      </c>
+      <c r="E35">
+        <v>-0.01277957893087335</v>
+      </c>
+      <c r="F35">
+        <v>0.001377730954710828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02702655721072218</v>
+        <v>0.02761196018298411</v>
       </c>
       <c r="C36">
-        <v>0.008050679140608304</v>
+        <v>-0.006836978659546912</v>
       </c>
       <c r="D36">
-        <v>-0.03861313774578966</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03976238554688671</v>
+      </c>
+      <c r="E36">
+        <v>-0.01675835853490581</v>
+      </c>
+      <c r="F36">
+        <v>0.01526910745813242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0001521976435293213</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005229888879244578</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002362905551517481</v>
+      </c>
+      <c r="E37">
+        <v>0.0005854666008294117</v>
+      </c>
+      <c r="F37">
+        <v>-0.001594691554933056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.117225153091406</v>
+        <v>0.1037003391240427</v>
       </c>
       <c r="C39">
-        <v>0.02487473004885376</v>
+        <v>-0.01560008936219159</v>
       </c>
       <c r="D39">
-        <v>-0.1400812994068319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538774021185148</v>
+      </c>
+      <c r="E39">
+        <v>-0.05903588332696653</v>
+      </c>
+      <c r="F39">
+        <v>0.03119235737840025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04051849861596423</v>
+        <v>0.04382017080495613</v>
       </c>
       <c r="C40">
-        <v>0.009793798564216964</v>
+        <v>-0.007502916493223616</v>
       </c>
       <c r="D40">
-        <v>-0.00854914031491282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0305039798462292</v>
+      </c>
+      <c r="E40">
+        <v>-0.001916661792821957</v>
+      </c>
+      <c r="F40">
+        <v>-0.01920035781243159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02553980831994427</v>
+        <v>0.02776459431673491</v>
       </c>
       <c r="C41">
-        <v>0.007125057181443489</v>
+        <v>-0.006827236892122783</v>
       </c>
       <c r="D41">
-        <v>-0.0097793429268894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01080556808460783</v>
+      </c>
+      <c r="E41">
+        <v>-0.0122224345623302</v>
+      </c>
+      <c r="F41">
+        <v>-0.005618510464334981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04237293490503069</v>
+        <v>0.04111471543248679</v>
       </c>
       <c r="C43">
-        <v>0.008260108963576242</v>
+        <v>-0.007164279058945847</v>
       </c>
       <c r="D43">
-        <v>-0.01340089269472346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01881798712712597</v>
+      </c>
+      <c r="E43">
+        <v>-0.02560784763348866</v>
+      </c>
+      <c r="F43">
+        <v>-0.01280362433415789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07594045602223864</v>
+        <v>0.07977514662483159</v>
       </c>
       <c r="C44">
-        <v>0.02703666563885915</v>
+        <v>-0.01923450400670674</v>
       </c>
       <c r="D44">
-        <v>-0.07807569041085109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09754272976733507</v>
+      </c>
+      <c r="E44">
+        <v>-0.06142801084680473</v>
+      </c>
+      <c r="F44">
+        <v>0.1597930399468973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0207849322334869</v>
+        <v>0.02323380132965753</v>
       </c>
       <c r="C46">
-        <v>0.003861996855499783</v>
+        <v>-0.003291263191276493</v>
       </c>
       <c r="D46">
-        <v>-0.006195124450332551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01288073662103172</v>
+      </c>
+      <c r="E46">
+        <v>-0.02608417744998539</v>
+      </c>
+      <c r="F46">
+        <v>-0.006850088969141195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05340363581279781</v>
+        <v>0.05254549583301162</v>
       </c>
       <c r="C47">
-        <v>0.004575358905234679</v>
+        <v>-0.003790265330521196</v>
       </c>
       <c r="D47">
-        <v>-0.007052712876012334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01149474718016876</v>
+      </c>
+      <c r="E47">
+        <v>-0.02339641196964836</v>
+      </c>
+      <c r="F47">
+        <v>-0.03208355963805386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04957682378873886</v>
+        <v>0.05020793965703196</v>
       </c>
       <c r="C48">
-        <v>0.005101830120689335</v>
+        <v>-0.002145472112984031</v>
       </c>
       <c r="D48">
-        <v>-0.04204433572420786</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05077848068345107</v>
+      </c>
+      <c r="E48">
+        <v>0.004716854774834784</v>
+      </c>
+      <c r="F48">
+        <v>0.009674886151295501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2014545770157334</v>
+        <v>0.199648243117019</v>
       </c>
       <c r="C49">
-        <v>0.02131555497884459</v>
+        <v>-0.01895926647536266</v>
       </c>
       <c r="D49">
-        <v>0.01713740683532573</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007602160457788019</v>
+      </c>
+      <c r="E49">
+        <v>-0.02989701009472416</v>
+      </c>
+      <c r="F49">
+        <v>0.0408772565493284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05045751816593703</v>
+        <v>0.05180445116923173</v>
       </c>
       <c r="C50">
-        <v>0.01305831310286651</v>
+        <v>-0.01140623262469798</v>
       </c>
       <c r="D50">
-        <v>-0.01989574603652238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02366373729756786</v>
+      </c>
+      <c r="E50">
+        <v>-0.02995836921374993</v>
+      </c>
+      <c r="F50">
+        <v>0.01008126775538225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1554826412390477</v>
+        <v>0.1495597131458696</v>
       </c>
       <c r="C52">
-        <v>0.01981082720447998</v>
+        <v>-0.01779945059946264</v>
       </c>
       <c r="D52">
-        <v>-0.04934338619898328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04085285905765352</v>
+      </c>
+      <c r="E52">
+        <v>-0.02047681875045053</v>
+      </c>
+      <c r="F52">
+        <v>0.04415458187090875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1724951813849572</v>
+        <v>0.1710921026413963</v>
       </c>
       <c r="C53">
-        <v>0.01939921187243577</v>
+        <v>-0.02006763483190269</v>
       </c>
       <c r="D53">
-        <v>-0.0138624014895413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003422496654578791</v>
+      </c>
+      <c r="E53">
+        <v>-0.02780563415177386</v>
+      </c>
+      <c r="F53">
+        <v>0.07354525564772595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01813143234839521</v>
+        <v>0.0208006605555316</v>
       </c>
       <c r="C54">
-        <v>0.0127436551003704</v>
+        <v>-0.01114408687881157</v>
       </c>
       <c r="D54">
-        <v>-0.02767069439080494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03487019712678714</v>
+      </c>
+      <c r="E54">
+        <v>-0.02232416316202824</v>
+      </c>
+      <c r="F54">
+        <v>-0.001767766146951075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1150683217811096</v>
+        <v>0.1153579909057117</v>
       </c>
       <c r="C55">
-        <v>0.01753133020504405</v>
+        <v>-0.017771941362864</v>
       </c>
       <c r="D55">
-        <v>-0.01141172786503371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006458835201548286</v>
+      </c>
+      <c r="E55">
+        <v>-0.02333888013213465</v>
+      </c>
+      <c r="F55">
+        <v>0.04684231374852653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1785211560948202</v>
+        <v>0.176994710045508</v>
       </c>
       <c r="C56">
-        <v>0.0171741500368263</v>
+        <v>-0.0180078765449416</v>
       </c>
       <c r="D56">
-        <v>-0.009538524659384026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004032404851511502</v>
+      </c>
+      <c r="E56">
+        <v>-0.03153682302054164</v>
+      </c>
+      <c r="F56">
+        <v>0.05374817057122108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04949583420281043</v>
+        <v>0.04520086871485959</v>
       </c>
       <c r="C58">
-        <v>0.005970470071119333</v>
+        <v>0.0003200847072293748</v>
       </c>
       <c r="D58">
-        <v>-0.05456530228335259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07199604342605764</v>
+      </c>
+      <c r="E58">
+        <v>-0.03313892006214472</v>
+      </c>
+      <c r="F58">
+        <v>-0.0363881011683973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1604720478455142</v>
+        <v>0.1670296915727626</v>
       </c>
       <c r="C59">
-        <v>0.01287681799225626</v>
+        <v>-0.02252094059468455</v>
       </c>
       <c r="D59">
-        <v>0.2243890220143079</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176060726261932</v>
+      </c>
+      <c r="E59">
+        <v>0.04671220721532881</v>
+      </c>
+      <c r="F59">
+        <v>-0.03499893527242502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2374481383832739</v>
+        <v>0.2318818863982179</v>
       </c>
       <c r="C60">
-        <v>0.001277135380298886</v>
+        <v>0.001930148605829476</v>
       </c>
       <c r="D60">
-        <v>-0.04594538984709007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03866320195193662</v>
+      </c>
+      <c r="E60">
+        <v>-0.006333963038323676</v>
+      </c>
+      <c r="F60">
+        <v>0.0002401104215138019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0882577796981792</v>
+        <v>0.07995562276391421</v>
       </c>
       <c r="C61">
-        <v>0.01848783876108395</v>
+        <v>-0.01119262412449698</v>
       </c>
       <c r="D61">
-        <v>-0.09854815678078908</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1176207923401651</v>
+      </c>
+      <c r="E61">
+        <v>-0.03920050070606859</v>
+      </c>
+      <c r="F61">
+        <v>0.0136162477956664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1702576171410372</v>
+        <v>0.1688750191093287</v>
       </c>
       <c r="C62">
-        <v>0.02122154260202026</v>
+        <v>-0.0207557833219402</v>
       </c>
       <c r="D62">
-        <v>-0.006355569600492658</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004477198915516013</v>
+      </c>
+      <c r="E62">
+        <v>-0.03226133768997424</v>
+      </c>
+      <c r="F62">
+        <v>0.03729357571355694</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04413781176751305</v>
+        <v>0.04616007792465685</v>
       </c>
       <c r="C63">
-        <v>0.006202103290728758</v>
+        <v>-0.001780929663597911</v>
       </c>
       <c r="D63">
-        <v>-0.04280742010700949</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05968447386495404</v>
+      </c>
+      <c r="E63">
+        <v>-0.02419405247411313</v>
+      </c>
+      <c r="F63">
+        <v>0.003661783725087933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127386649329026</v>
+        <v>0.1108481488370878</v>
       </c>
       <c r="C64">
-        <v>0.01503810384426311</v>
+        <v>-0.01142492825080484</v>
       </c>
       <c r="D64">
-        <v>-0.03177972345280581</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04337796617815233</v>
+      </c>
+      <c r="E64">
+        <v>-0.02269123895863629</v>
+      </c>
+      <c r="F64">
+        <v>0.02626780337554684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1395275415058173</v>
+        <v>0.151112689150265</v>
       </c>
       <c r="C65">
-        <v>0.03332787987459707</v>
+        <v>-0.03432823956385959</v>
       </c>
       <c r="D65">
-        <v>0.04964960151236942</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04559447799345223</v>
+      </c>
+      <c r="E65">
+        <v>-0.00437181967430326</v>
+      </c>
+      <c r="F65">
+        <v>0.0364390435876566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1400933485101603</v>
+        <v>0.1237079289708699</v>
       </c>
       <c r="C66">
-        <v>0.02302197771678601</v>
+        <v>-0.01361023193788364</v>
       </c>
       <c r="D66">
-        <v>-0.1176328705772484</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410749658853517</v>
+      </c>
+      <c r="E66">
+        <v>-0.06400038677193945</v>
+      </c>
+      <c r="F66">
+        <v>0.03460802787994344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06394310791926665</v>
+        <v>0.05699240172345967</v>
       </c>
       <c r="C67">
-        <v>0.005594043668877217</v>
+        <v>-0.002768973756480788</v>
       </c>
       <c r="D67">
-        <v>-0.05203726706410593</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05558751880324385</v>
+      </c>
+      <c r="E67">
+        <v>-0.01652468712684368</v>
+      </c>
+      <c r="F67">
+        <v>-0.02966637485885879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1039326933502331</v>
+        <v>0.1161889550921901</v>
       </c>
       <c r="C68">
-        <v>0.02120282724457098</v>
+        <v>-0.0329820345044413</v>
       </c>
       <c r="D68">
-        <v>0.2716296824497703</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2616139820741016</v>
+      </c>
+      <c r="E68">
+        <v>0.08765179944813591</v>
+      </c>
+      <c r="F68">
+        <v>-0.002069561332054591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04010201162622462</v>
+        <v>0.03892227444615202</v>
       </c>
       <c r="C69">
-        <v>0.001842067368786993</v>
+        <v>-0.001233852243074779</v>
       </c>
       <c r="D69">
-        <v>-0.007073554340918102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007790664713794402</v>
+      </c>
+      <c r="E69">
+        <v>-0.02327866054721934</v>
+      </c>
+      <c r="F69">
+        <v>0.001084058686748367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06771881281022255</v>
+        <v>0.06672880702369616</v>
       </c>
       <c r="C70">
-        <v>-0.02426933617574372</v>
+        <v>0.02736744332059647</v>
       </c>
       <c r="D70">
-        <v>0.01170698759083596</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02427401432567039</v>
+      </c>
+      <c r="E70">
+        <v>0.03057420065782995</v>
+      </c>
+      <c r="F70">
+        <v>-0.1778615531002863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1218755754670615</v>
+        <v>0.1357102471811047</v>
       </c>
       <c r="C71">
-        <v>0.02465195413881204</v>
+        <v>-0.03728727164860401</v>
       </c>
       <c r="D71">
-        <v>0.2858276606545488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724146893333481</v>
+      </c>
+      <c r="E71">
+        <v>0.09754449279591711</v>
+      </c>
+      <c r="F71">
+        <v>0.004337094645872934</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1386764723253154</v>
+        <v>0.1434157026466939</v>
       </c>
       <c r="C72">
-        <v>0.02757850952479283</v>
+        <v>-0.02757744339188404</v>
       </c>
       <c r="D72">
-        <v>-0.0009254747899672529</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004665629402366912</v>
+      </c>
+      <c r="E72">
+        <v>-0.03603357602264622</v>
+      </c>
+      <c r="F72">
+        <v>0.03044806878088628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2059130655821848</v>
+        <v>0.2040466610263541</v>
       </c>
       <c r="C73">
-        <v>0.01695276189878369</v>
+        <v>-0.0131405187379282</v>
       </c>
       <c r="D73">
-        <v>-0.01395402406045536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01670162913988772</v>
+      </c>
+      <c r="E73">
+        <v>-0.06313737332925949</v>
+      </c>
+      <c r="F73">
+        <v>0.03947337973428161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09289182810610067</v>
+        <v>0.09548920896409514</v>
       </c>
       <c r="C74">
-        <v>0.01379743551861801</v>
+        <v>-0.01363938603460815</v>
       </c>
       <c r="D74">
-        <v>-0.02062974461769462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01544501407133415</v>
+      </c>
+      <c r="E74">
+        <v>-0.04326810459260506</v>
+      </c>
+      <c r="F74">
+        <v>0.05652120456881934</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1337734344007969</v>
+        <v>0.1274123132537924</v>
       </c>
       <c r="C75">
-        <v>0.03016242158644951</v>
+        <v>-0.02847620912648966</v>
       </c>
       <c r="D75">
-        <v>-0.02804594435291464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02824876513767617</v>
+      </c>
+      <c r="E75">
+        <v>-0.05612050355339248</v>
+      </c>
+      <c r="F75">
+        <v>0.02270245515375193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08420714347806921</v>
+        <v>0.08968217914825337</v>
       </c>
       <c r="C77">
-        <v>0.01560496553153104</v>
+        <v>-0.008023658268483249</v>
       </c>
       <c r="D77">
-        <v>-0.09413663871667546</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141412429329535</v>
+      </c>
+      <c r="E77">
+        <v>-0.04330959184065634</v>
+      </c>
+      <c r="F77">
+        <v>0.03456464370481169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1046578376174514</v>
+        <v>0.1007778509724578</v>
       </c>
       <c r="C78">
-        <v>0.04636194523638511</v>
+        <v>-0.03939758691720671</v>
       </c>
       <c r="D78">
-        <v>-0.1016155014781151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1148647419702113</v>
+      </c>
+      <c r="E78">
+        <v>-0.07608225471960635</v>
+      </c>
+      <c r="F78">
+        <v>0.0495151319901951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1637707642709713</v>
+        <v>0.1635016252895145</v>
       </c>
       <c r="C79">
-        <v>0.02425214656454193</v>
+        <v>-0.02318862402006157</v>
       </c>
       <c r="D79">
-        <v>-0.01376268539715816</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01168160291114501</v>
+      </c>
+      <c r="E79">
+        <v>-0.04396898318514474</v>
+      </c>
+      <c r="F79">
+        <v>0.01218731521203667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08641531648728593</v>
+        <v>0.08265959182318204</v>
       </c>
       <c r="C80">
-        <v>0.002032571884119384</v>
+        <v>0.0005528197897609252</v>
       </c>
       <c r="D80">
-        <v>-0.04355295449832833</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05537509907525711</v>
+      </c>
+      <c r="E80">
+        <v>-0.03558624986154706</v>
+      </c>
+      <c r="F80">
+        <v>-0.01934499356786289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200128959634838</v>
+        <v>0.1180069128537801</v>
       </c>
       <c r="C81">
-        <v>0.03234415252984155</v>
+        <v>-0.03196288453556641</v>
       </c>
       <c r="D81">
-        <v>-0.02278014114169952</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01354339210858102</v>
+      </c>
+      <c r="E81">
+        <v>-0.05473736882644993</v>
+      </c>
+      <c r="F81">
+        <v>0.02016345608577456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658519116513405</v>
+        <v>0.1661343380078203</v>
       </c>
       <c r="C82">
-        <v>0.02493305578779358</v>
+        <v>-0.02546842016408784</v>
       </c>
       <c r="D82">
-        <v>-0.01285932829414335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001157574919889465</v>
+      </c>
+      <c r="E82">
+        <v>-0.02411788217434887</v>
+      </c>
+      <c r="F82">
+        <v>0.08110800976546403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06683658502609012</v>
+        <v>0.05842524915441564</v>
       </c>
       <c r="C83">
-        <v>0.006161142640076233</v>
+        <v>-0.002894610300897065</v>
       </c>
       <c r="D83">
-        <v>-0.03399371383949475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04933194516582281</v>
+      </c>
+      <c r="E83">
+        <v>-0.002694908768526855</v>
+      </c>
+      <c r="F83">
+        <v>-0.02908240602293052</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06449404352100982</v>
+        <v>0.05847568970820739</v>
       </c>
       <c r="C84">
-        <v>0.01492075159671684</v>
+        <v>-0.01079464260783474</v>
       </c>
       <c r="D84">
-        <v>-0.06467912467522355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0727381989688814</v>
+      </c>
+      <c r="E84">
+        <v>-0.01472643460584334</v>
+      </c>
+      <c r="F84">
+        <v>0.01428899244641914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1368195580914761</v>
+        <v>0.1351871021369584</v>
       </c>
       <c r="C85">
-        <v>0.02849791804229925</v>
+        <v>-0.02838362471501549</v>
       </c>
       <c r="D85">
-        <v>-0.01721050975656246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007737306699337413</v>
+      </c>
+      <c r="E85">
+        <v>-0.03489851039487232</v>
+      </c>
+      <c r="F85">
+        <v>0.04728429676955836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1032913954442947</v>
+        <v>0.09356071657205603</v>
       </c>
       <c r="C86">
-        <v>-0.002653392056381935</v>
+        <v>0.006283049978757189</v>
       </c>
       <c r="D86">
-        <v>0.006286281703890222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05048145971715245</v>
+      </c>
+      <c r="E86">
+        <v>-0.2434312285894228</v>
+      </c>
+      <c r="F86">
+        <v>-0.9025720048117611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1002354297461054</v>
+        <v>0.0938413506873288</v>
       </c>
       <c r="C87">
-        <v>0.02880073371712338</v>
+        <v>-0.01909011847639341</v>
       </c>
       <c r="D87">
-        <v>-0.06585417370644939</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09447480502103921</v>
+      </c>
+      <c r="E87">
+        <v>0.05283015936347888</v>
+      </c>
+      <c r="F87">
+        <v>0.04730245651283629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0605992866627876</v>
+        <v>0.0601658144237288</v>
       </c>
       <c r="C88">
-        <v>0.005201868887192472</v>
+        <v>-0.00221596338918027</v>
       </c>
       <c r="D88">
-        <v>-0.05422913046232961</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04962207684748835</v>
+      </c>
+      <c r="E88">
+        <v>-0.02399706326148198</v>
+      </c>
+      <c r="F88">
+        <v>0.0152175400076547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1157589440239859</v>
+        <v>0.1266082840038969</v>
       </c>
       <c r="C89">
-        <v>0.001957169879274402</v>
+        <v>-0.01270748027124585</v>
       </c>
       <c r="D89">
-        <v>0.2610170809483706</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2437823665065813</v>
+      </c>
+      <c r="E89">
+        <v>0.08941934503469341</v>
+      </c>
+      <c r="F89">
+        <v>-0.01260738656197363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1329021913454921</v>
+        <v>0.1504460984842917</v>
       </c>
       <c r="C90">
-        <v>0.02142212216546622</v>
+        <v>-0.03400440941560288</v>
       </c>
       <c r="D90">
-        <v>0.2735161282436543</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700808534305963</v>
+      </c>
+      <c r="E90">
+        <v>0.1136547846681623</v>
+      </c>
+      <c r="F90">
+        <v>-0.01254531103921463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1197938459044155</v>
+        <v>0.1211525816676965</v>
       </c>
       <c r="C91">
-        <v>0.01934867399798938</v>
+        <v>-0.02010881391424229</v>
       </c>
       <c r="D91">
-        <v>0.009236247043193993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01697562944630417</v>
+      </c>
+      <c r="E91">
+        <v>-0.05417530095220614</v>
+      </c>
+      <c r="F91">
+        <v>-0.0003239109781416809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1367771329287199</v>
+        <v>0.1465111304034486</v>
       </c>
       <c r="C92">
-        <v>0.01134237506020842</v>
+        <v>-0.0244875251814537</v>
       </c>
       <c r="D92">
-        <v>0.3087641467051662</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2902663273782666</v>
+      </c>
+      <c r="E92">
+        <v>0.1014507211064876</v>
+      </c>
+      <c r="F92">
+        <v>-0.02148814413470047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1364040242615121</v>
+        <v>0.1508134439699719</v>
       </c>
       <c r="C93">
-        <v>0.01703286705091956</v>
+        <v>-0.0288622484352115</v>
       </c>
       <c r="D93">
-        <v>0.2694059957676936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653020675167725</v>
+      </c>
+      <c r="E93">
+        <v>0.07611552425209984</v>
+      </c>
+      <c r="F93">
+        <v>-0.00192453915791437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344706998507119</v>
+        <v>0.1281172290019966</v>
       </c>
       <c r="C94">
-        <v>0.02723580441787681</v>
+        <v>-0.02493682367509619</v>
       </c>
       <c r="D94">
-        <v>-0.04206942027764134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03999375310162728</v>
+      </c>
+      <c r="E94">
+        <v>-0.0561999535255374</v>
+      </c>
+      <c r="F94">
+        <v>0.03549014169540977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266323229373654</v>
+        <v>0.1267413177558304</v>
       </c>
       <c r="C95">
-        <v>0.01052694298745716</v>
+        <v>-0.003394240023575702</v>
       </c>
       <c r="D95">
-        <v>-0.07701898636123791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09816962947009673</v>
+      </c>
+      <c r="E95">
+        <v>-0.05322624248977064</v>
+      </c>
+      <c r="F95">
+        <v>-0.005886585554665093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1185347740220325</v>
+        <v>0.1101480338962634</v>
       </c>
       <c r="C96">
-        <v>-0.9871688547755028</v>
+        <v>0.9870213046572358</v>
       </c>
       <c r="D96">
-        <v>0.009679457571547095</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05122953029999269</v>
+      </c>
+      <c r="E96">
+        <v>-0.05230481306208926</v>
+      </c>
+      <c r="F96">
+        <v>0.04296642116230258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1931585177712139</v>
+        <v>0.1932374445622666</v>
       </c>
       <c r="C97">
-        <v>-0.005734484182305317</v>
+        <v>0.006195369292955544</v>
       </c>
       <c r="D97">
-        <v>0.0151623967720755</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02024067061433498</v>
+      </c>
+      <c r="E97">
+        <v>-0.02144776927840569</v>
+      </c>
+      <c r="F97">
+        <v>-0.09239542873681542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1995997402638892</v>
+        <v>0.2066966570046594</v>
       </c>
       <c r="C98">
-        <v>0.01114907327305542</v>
+        <v>-0.007239829068846894</v>
       </c>
       <c r="D98">
-        <v>-0.01273595009396769</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0134731055423982</v>
+      </c>
+      <c r="E98">
+        <v>0.07489473743999638</v>
+      </c>
+      <c r="F98">
+        <v>-0.09230428804342039</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05636678602087902</v>
+        <v>0.05481094199082828</v>
       </c>
       <c r="C99">
-        <v>-0.001996912516434161</v>
+        <v>0.004418373152824885</v>
       </c>
       <c r="D99">
-        <v>-0.02246857265467206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03834740576693706</v>
+      </c>
+      <c r="E99">
+        <v>-0.0212031439565157</v>
+      </c>
+      <c r="F99">
+        <v>0.00325497108617105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1420474204436651</v>
+        <v>0.1285253050423301</v>
       </c>
       <c r="C100">
-        <v>-0.03750082926679805</v>
+        <v>0.05301491869482557</v>
       </c>
       <c r="D100">
-        <v>-0.4243199633014811</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.349865463413021</v>
+      </c>
+      <c r="E100">
+        <v>0.8828531899917916</v>
+      </c>
+      <c r="F100">
+        <v>-0.1693179291767962</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02620070975294899</v>
+        <v>0.02871503058486068</v>
       </c>
       <c r="C101">
-        <v>0.009810223421318476</v>
+        <v>-0.008744881061224818</v>
       </c>
       <c r="D101">
-        <v>-0.02123045362913517</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03085874496471246</v>
+      </c>
+      <c r="E101">
+        <v>-0.01341942391535962</v>
+      </c>
+      <c r="F101">
+        <v>-0.01372554354994246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
